--- a/pred_ohlcv/54/2019-10-18 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-18 STEEM ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>194.5333333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -452,6 +460,9 @@
         <v>194.5833333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -478,6 +489,9 @@
         <v>194.6666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,6 +518,9 @@
         <v>194.75</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -530,6 +547,9 @@
         <v>194.85</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -556,6 +576,9 @@
         <v>194.95</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,6 +605,9 @@
         <v>195.05</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,6 +1042,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1026,6 +1100,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1052,6 +1129,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1078,6 +1158,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1130,6 +1216,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1156,6 +1245,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1182,6 +1274,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1208,6 +1303,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1234,6 +1332,9 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1260,550 +1361,7 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>202</v>
-      </c>
-      <c r="C35" t="n">
-        <v>202</v>
-      </c>
-      <c r="D35" t="n">
-        <v>202</v>
-      </c>
-      <c r="E35" t="n">
-        <v>202</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1090.3983</v>
-      </c>
-      <c r="G35" t="n">
-        <v>198.45</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>204</v>
-      </c>
-      <c r="C36" t="n">
-        <v>204</v>
-      </c>
-      <c r="D36" t="n">
-        <v>204</v>
-      </c>
-      <c r="E36" t="n">
-        <v>204</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>198.6166666666667</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>204</v>
-      </c>
-      <c r="C37" t="n">
-        <v>204</v>
-      </c>
-      <c r="D37" t="n">
-        <v>204</v>
-      </c>
-      <c r="E37" t="n">
-        <v>204</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1282.7892</v>
-      </c>
-      <c r="G37" t="n">
-        <v>198.7666666666667</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>204</v>
-      </c>
-      <c r="C38" t="n">
-        <v>204</v>
-      </c>
-      <c r="D38" t="n">
-        <v>204</v>
-      </c>
-      <c r="E38" t="n">
-        <v>204</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2338.8088</v>
-      </c>
-      <c r="G38" t="n">
-        <v>198.9166666666667</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>204</v>
-      </c>
-      <c r="C39" t="n">
-        <v>204</v>
-      </c>
-      <c r="D39" t="n">
-        <v>204</v>
-      </c>
-      <c r="E39" t="n">
-        <v>204</v>
-      </c>
-      <c r="F39" t="n">
-        <v>8.0686</v>
-      </c>
-      <c r="G39" t="n">
-        <v>199.0833333333333</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>204</v>
-      </c>
-      <c r="C40" t="n">
-        <v>204</v>
-      </c>
-      <c r="D40" t="n">
-        <v>204</v>
-      </c>
-      <c r="E40" t="n">
-        <v>204</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1636.2303</v>
-      </c>
-      <c r="G40" t="n">
-        <v>199.3166666666667</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>204</v>
-      </c>
-      <c r="C41" t="n">
-        <v>204</v>
-      </c>
-      <c r="D41" t="n">
-        <v>204</v>
-      </c>
-      <c r="E41" t="n">
-        <v>204</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3703.0425</v>
-      </c>
-      <c r="G41" t="n">
-        <v>199.4666666666667</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>205</v>
-      </c>
-      <c r="C42" t="n">
-        <v>205</v>
-      </c>
-      <c r="D42" t="n">
-        <v>205</v>
-      </c>
-      <c r="E42" t="n">
-        <v>205</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5821.8776</v>
-      </c>
-      <c r="G42" t="n">
-        <v>199.6</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>206</v>
-      </c>
-      <c r="C43" t="n">
-        <v>206</v>
-      </c>
-      <c r="D43" t="n">
-        <v>206</v>
-      </c>
-      <c r="E43" t="n">
-        <v>206</v>
-      </c>
-      <c r="F43" t="n">
-        <v>57.1504</v>
-      </c>
-      <c r="G43" t="n">
-        <v>199.75</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>206</v>
-      </c>
-      <c r="C44" t="n">
-        <v>206</v>
-      </c>
-      <c r="D44" t="n">
-        <v>206</v>
-      </c>
-      <c r="E44" t="n">
-        <v>206</v>
-      </c>
-      <c r="F44" t="n">
-        <v>21.5631</v>
-      </c>
-      <c r="G44" t="n">
-        <v>199.9</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>205</v>
-      </c>
-      <c r="C45" t="n">
-        <v>205</v>
-      </c>
-      <c r="D45" t="n">
-        <v>205</v>
-      </c>
-      <c r="E45" t="n">
-        <v>205</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2200.0487</v>
-      </c>
-      <c r="G45" t="n">
-        <v>200.0333333333333</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>201</v>
-      </c>
-      <c r="C46" t="n">
-        <v>201</v>
-      </c>
-      <c r="D46" t="n">
-        <v>201</v>
-      </c>
-      <c r="E46" t="n">
-        <v>201</v>
-      </c>
-      <c r="F46" t="n">
-        <v>103.9416</v>
-      </c>
-      <c r="G46" t="n">
-        <v>200.0833333333333</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>204</v>
-      </c>
-      <c r="C47" t="n">
-        <v>204</v>
-      </c>
-      <c r="D47" t="n">
-        <v>204</v>
-      </c>
-      <c r="E47" t="n">
-        <v>204</v>
-      </c>
-      <c r="F47" t="n">
-        <v>103.942</v>
-      </c>
-      <c r="G47" t="n">
-        <v>200.2166666666667</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>205</v>
-      </c>
-      <c r="C48" t="n">
-        <v>205</v>
-      </c>
-      <c r="D48" t="n">
-        <v>205</v>
-      </c>
-      <c r="E48" t="n">
-        <v>205</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>200.3833333333333</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>205</v>
-      </c>
-      <c r="C49" t="n">
-        <v>205</v>
-      </c>
-      <c r="D49" t="n">
-        <v>205</v>
-      </c>
-      <c r="E49" t="n">
-        <v>205</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4066.8693</v>
-      </c>
-      <c r="G49" t="n">
-        <v>200.55</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>205</v>
-      </c>
-      <c r="C50" t="n">
-        <v>205</v>
-      </c>
-      <c r="D50" t="n">
-        <v>205</v>
-      </c>
-      <c r="E50" t="n">
-        <v>205</v>
-      </c>
-      <c r="F50" t="n">
-        <v>514.8363000000001</v>
-      </c>
-      <c r="G50" t="n">
-        <v>200.6833333333333</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>205</v>
-      </c>
-      <c r="C51" t="n">
-        <v>205</v>
-      </c>
-      <c r="D51" t="n">
-        <v>205</v>
-      </c>
-      <c r="E51" t="n">
-        <v>205</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2194.5486</v>
-      </c>
-      <c r="G51" t="n">
-        <v>200.8166666666667</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>206</v>
-      </c>
-      <c r="C52" t="n">
-        <v>206</v>
-      </c>
-      <c r="D52" t="n">
-        <v>206</v>
-      </c>
-      <c r="E52" t="n">
-        <v>206</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>200.9666666666667</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>205</v>
-      </c>
-      <c r="C53" t="n">
-        <v>205</v>
-      </c>
-      <c r="D53" t="n">
-        <v>205</v>
-      </c>
-      <c r="E53" t="n">
-        <v>205</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1536.5665</v>
-      </c>
-      <c r="G53" t="n">
-        <v>201.1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>205</v>
-      </c>
-      <c r="C54" t="n">
-        <v>205</v>
-      </c>
-      <c r="D54" t="n">
-        <v>205</v>
-      </c>
-      <c r="E54" t="n">
-        <v>205</v>
-      </c>
-      <c r="F54" t="n">
-        <v>7493.6763</v>
-      </c>
-      <c r="G54" t="n">
-        <v>201.25</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>204</v>
-      </c>
-      <c r="C55" t="n">
-        <v>200</v>
-      </c>
-      <c r="D55" t="n">
-        <v>204</v>
-      </c>
-      <c r="E55" t="n">
-        <v>200</v>
-      </c>
-      <c r="F55" t="n">
-        <v>287.7968</v>
-      </c>
-      <c r="G55" t="n">
-        <v>201.3</v>
-      </c>
-      <c r="H55" t="n">
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
